--- a/Project/testdata/TonerExcel - Copy.xlsx
+++ b/Project/testdata/TonerExcel - Copy.xlsx
@@ -407,7 +407,7 @@
         <v>TONER</v>
       </c>
       <c r="B1" t="str">
-        <v>Toner</v>
+        <v>https://www.nykaa.com/skin/toners-mists/c/8391?search_redirection=True</v>
       </c>
     </row>
     <row r="2">
